--- a/src/excel/planilhaDesafio.xlsx
+++ b/src/excel/planilhaDesafio.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -44,16 +44,16 @@
     <t>Silva</t>
   </si>
   <si>
-    <t>vini001</t>
-  </si>
-  <si>
     <t>Larissa</t>
   </si>
   <si>
     <t>Oliveira</t>
   </si>
   <si>
-    <t>lari001</t>
+    <t>vini007</t>
+  </si>
+  <si>
+    <t>lari007</t>
   </si>
 </sst>
 </file>
@@ -374,13 +374,14 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -406,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>1234</v>
@@ -414,10 +415,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -428,5 +429,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/excel/planilhaDesafio.xlsx
+++ b/src/excel/planilhaDesafio.xlsx
@@ -50,10 +50,10 @@
     <t>Oliveira</t>
   </si>
   <si>
-    <t>vini007</t>
-  </si>
-  <si>
-    <t>lari007</t>
+    <t>vini001</t>
+  </si>
+  <si>
+    <t>lari001</t>
   </si>
 </sst>
 </file>
@@ -374,7 +374,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/excel/planilhaDesafio.xlsx
+++ b/src/excel/planilhaDesafio.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
+    <sheet name="cor" sheetId="2" r:id="rId2"/>
+    <sheet name="ano" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>firstname</t>
   </si>
@@ -54,6 +56,21 @@
   </si>
   <si>
     <t>lari001</t>
+  </si>
+  <si>
+    <t>corPesquisa</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>ano</t>
   </si>
 </sst>
 </file>
@@ -373,7 +390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -431,4 +448,88 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2009</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>